--- a/上机/第3次机试练习/2019-11-18.xlsx
+++ b/上机/第3次机试练习/2019-11-18.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20338"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_repository\C-Program\上机\第3次机试练习\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC5C145-D0CF-4230-B3A4-9158F41725DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="612" yWindow="552" windowWidth="17952" windowHeight="8436"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CS006001060 (2)" sheetId="2" r:id="rId1"/>
@@ -761,7 +767,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -823,6 +829,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -870,7 +879,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -903,9 +912,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -938,6 +964,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1113,11 +1156,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93:XFD98"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77:XFD77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1139,10 +1182,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C2">
         <v>1000</v>
@@ -1150,65 +1193,65 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C3">
-        <v>1000</v>
+        <v>900</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="C4">
-        <v>1000</v>
+        <v>960</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>157</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="C5">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="C6">
         <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7">
-        <v>1000</v>
+      <c r="A7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="1">
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>165</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>166</v>
       </c>
       <c r="C8">
         <v>1000</v>
@@ -1216,21 +1259,21 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="C9">
-        <v>1000</v>
+        <v>775</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="C10">
         <v>1000</v>
@@ -1238,54 +1281,54 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="C11">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>199</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>200</v>
       </c>
       <c r="C12">
-        <v>1000</v>
+        <v>925</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>197</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>198</v>
       </c>
       <c r="C13">
-        <v>1000</v>
+        <v>680</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="C14">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>191</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="C15">
         <v>1000</v>
@@ -1293,87 +1336,87 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>204</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>205</v>
       </c>
       <c r="C16">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17">
-        <v>1000</v>
+      <c r="A17" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C17" s="1">
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>178</v>
       </c>
       <c r="C18">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19">
-        <v>1000</v>
+      <c r="A19" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>183</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>184</v>
       </c>
       <c r="C20">
-        <v>1000</v>
+        <v>580</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>240</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>241</v>
       </c>
       <c r="C21">
-        <v>1000</v>
+        <v>700</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>244</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>245</v>
       </c>
       <c r="C22">
-        <v>1000</v>
+        <v>880</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>100</v>
+        <v>238</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>239</v>
       </c>
       <c r="C23">
         <v>1000</v>
@@ -1381,10 +1424,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>218</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>219</v>
       </c>
       <c r="C24">
         <v>1000</v>
@@ -1392,43 +1435,43 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>220</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>221</v>
       </c>
       <c r="C25">
-        <v>1000</v>
+        <v>955</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>208</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>209</v>
       </c>
       <c r="C26">
         <v>1000</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>122</v>
-      </c>
-      <c r="B27" t="s">
-        <v>123</v>
-      </c>
-      <c r="C27">
-        <v>1000</v>
+      <c r="A27" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C27" s="1">
+        <v>380</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B28" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C28">
         <v>1000</v>
@@ -1436,10 +1479,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="B29" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="C29">
         <v>1000</v>
@@ -1447,21 +1490,21 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="B30" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="C30">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="B31" t="s">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="C31">
         <v>1000</v>
@@ -1469,10 +1512,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="B32" t="s">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="C32">
         <v>1000</v>
@@ -1480,10 +1523,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>143</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>144</v>
+        <v>60</v>
       </c>
       <c r="C33">
         <v>1000</v>
@@ -1491,21 +1534,21 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="C34">
-        <v>1000</v>
+        <v>810</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>1000</v>
@@ -1524,21 +1567,21 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>155</v>
+        <v>228</v>
       </c>
       <c r="B37" t="s">
-        <v>156</v>
+        <v>229</v>
       </c>
       <c r="C37">
-        <v>1000</v>
+        <v>950</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>159</v>
+        <v>224</v>
       </c>
       <c r="B38" t="s">
-        <v>160</v>
+        <v>225</v>
       </c>
       <c r="C38">
         <v>1000</v>
@@ -1546,32 +1589,32 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>161</v>
+        <v>222</v>
       </c>
       <c r="B39" t="s">
-        <v>162</v>
+        <v>223</v>
       </c>
       <c r="C39">
         <v>1000</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>165</v>
-      </c>
-      <c r="B40" t="s">
-        <v>166</v>
-      </c>
-      <c r="C40">
-        <v>1000</v>
+      <c r="A40" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="1">
+        <v>310</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>167</v>
+        <v>107</v>
       </c>
       <c r="B41" t="s">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="C41">
         <v>1000</v>
@@ -1579,21 +1622,21 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="B42" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="C42">
-        <v>1000</v>
+        <v>900</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>173</v>
+        <v>65</v>
       </c>
       <c r="B43" t="s">
-        <v>174</v>
+        <v>66</v>
       </c>
       <c r="C43">
         <v>1000</v>
@@ -1601,21 +1644,21 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>175</v>
+        <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>176</v>
+        <v>56</v>
       </c>
       <c r="C44">
-        <v>1000</v>
+        <v>885</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>187</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="C45">
         <v>1000</v>
@@ -1623,32 +1666,32 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>189</v>
+        <v>69</v>
       </c>
       <c r="B46" t="s">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c r="C46">
-        <v>1000</v>
+        <v>660</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="B47" t="s">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="C47">
-        <v>1000</v>
+        <v>900</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="B48" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
       <c r="C48">
         <v>1000</v>
@@ -1656,10 +1699,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>208</v>
+        <v>155</v>
       </c>
       <c r="B49" t="s">
-        <v>209</v>
+        <v>156</v>
       </c>
       <c r="C49">
         <v>1000</v>
@@ -1667,10 +1710,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>210</v>
+        <v>151</v>
       </c>
       <c r="B50" t="s">
-        <v>211</v>
+        <v>152</v>
       </c>
       <c r="C50">
         <v>1000</v>
@@ -1678,21 +1721,21 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>216</v>
+        <v>145</v>
       </c>
       <c r="B51" t="s">
-        <v>217</v>
+        <v>146</v>
       </c>
       <c r="C51">
-        <v>1000</v>
+        <v>735</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="B52" t="s">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="C52">
         <v>1000</v>
@@ -1700,10 +1743,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>222</v>
+        <v>132</v>
       </c>
       <c r="B53" t="s">
-        <v>223</v>
+        <v>133</v>
       </c>
       <c r="C53">
         <v>1000</v>
@@ -1711,21 +1754,21 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>224</v>
+        <v>130</v>
       </c>
       <c r="B54" t="s">
-        <v>225</v>
+        <v>131</v>
       </c>
       <c r="C54">
-        <v>1000</v>
+        <v>645</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>226</v>
+        <v>137</v>
       </c>
       <c r="B55" t="s">
-        <v>227</v>
+        <v>138</v>
       </c>
       <c r="C55">
         <v>1000</v>
@@ -1733,32 +1776,32 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>230</v>
+        <v>141</v>
       </c>
       <c r="B56" t="s">
-        <v>231</v>
+        <v>142</v>
       </c>
       <c r="C56">
         <v>1000</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>238</v>
-      </c>
-      <c r="B57" t="s">
-        <v>239</v>
-      </c>
-      <c r="C57">
-        <v>1000</v>
+      <c r="A57" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C57" s="1">
+        <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="B58" t="s">
-        <v>243</v>
+        <v>202</v>
       </c>
       <c r="C58">
         <v>1000</v>
@@ -1766,480 +1809,480 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="B59" t="s">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c r="C59">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>95</v>
-      </c>
-      <c r="B60" t="s">
-        <v>96</v>
-      </c>
-      <c r="C60">
-        <v>980</v>
+      <c r="A60" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B61" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C61">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="B62" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="C62">
-        <v>975</v>
+        <v>940</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>72</v>
+        <v>175</v>
       </c>
       <c r="B63" t="s">
-        <v>73</v>
+        <v>176</v>
       </c>
       <c r="C63">
-        <v>960</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="B64" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="C64">
-        <v>955</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="B65" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="C65">
-        <v>950</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>228</v>
+        <v>98</v>
       </c>
       <c r="B66" t="s">
-        <v>229</v>
+        <v>99</v>
       </c>
       <c r="C66">
-        <v>950</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>236</v>
+        <v>90</v>
       </c>
       <c r="B67" t="s">
-        <v>237</v>
+        <v>91</v>
       </c>
       <c r="C67">
-        <v>950</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="B68" t="s">
-        <v>180</v>
+        <v>94</v>
       </c>
       <c r="C68">
-        <v>940</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="B69" t="s">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="C69">
-        <v>925</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="C70">
-        <v>900</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B71" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C71">
-        <v>900</v>
+        <v>980</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="B72" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="C72">
-        <v>900</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="B73" t="s">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="C73">
-        <v>900</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B74" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C74">
-        <v>885</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B75" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C75">
-        <v>880</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>244</v>
-      </c>
-      <c r="B76" t="s">
-        <v>245</v>
-      </c>
-      <c r="C76">
-        <v>880</v>
+      <c r="A76" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C76" s="1">
+        <v>500</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>118</v>
+        <v>234</v>
       </c>
       <c r="B77" t="s">
-        <v>119</v>
+        <v>235</v>
       </c>
       <c r="C77">
-        <v>830</v>
+        <v>600</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="B78" t="s">
-        <v>62</v>
+        <v>140</v>
       </c>
       <c r="C78">
-        <v>810</v>
+        <v>975</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="B79" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="C79">
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="B80" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="C80">
-        <v>775</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B81" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C81">
-        <v>735</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>240</v>
+        <v>147</v>
       </c>
       <c r="B82" t="s">
-        <v>241</v>
+        <v>148</v>
       </c>
       <c r="C82">
-        <v>700</v>
+        <v>680</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>147</v>
+        <v>63</v>
       </c>
       <c r="B83" t="s">
-        <v>148</v>
+        <v>64</v>
       </c>
       <c r="C83">
-        <v>680</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>197</v>
+        <v>67</v>
       </c>
       <c r="B84" t="s">
-        <v>198</v>
+        <v>68</v>
       </c>
       <c r="C84">
-        <v>680</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="B85" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="C85">
-        <v>660</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>130</v>
+        <v>29</v>
       </c>
       <c r="B86" t="s">
-        <v>131</v>
+        <v>30</v>
       </c>
       <c r="C86">
-        <v>645</v>
+        <v>880</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B87" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C87">
-        <v>600</v>
+        <v>900</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="B88" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="C88">
-        <v>600</v>
+        <v>950</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>177</v>
+        <v>100</v>
       </c>
       <c r="B89" t="s">
-        <v>178</v>
+        <v>101</v>
       </c>
       <c r="C89">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>204</v>
+        <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>205</v>
+        <v>89</v>
       </c>
       <c r="C90">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="B91" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="C91">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="B92" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="C92">
-        <v>580</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="93" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="C93" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C94" s="1">
-        <v>400</v>
+      <c r="A94" t="s">
+        <v>242</v>
+      </c>
+      <c r="B94" t="s">
+        <v>243</v>
+      </c>
+      <c r="C94">
+        <v>1000</v>
       </c>
     </row>
     <row r="95" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C95" s="1">
-        <v>380</v>
+      <c r="A95" t="s">
+        <v>236</v>
+      </c>
+      <c r="B95" t="s">
+        <v>237</v>
+      </c>
+      <c r="C95">
+        <v>950</v>
       </c>
     </row>
     <row r="96" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C96" s="1">
-        <v>310</v>
+      <c r="A96" t="s">
+        <v>173</v>
+      </c>
+      <c r="B96" t="s">
+        <v>174</v>
+      </c>
+      <c r="C96">
+        <v>1000</v>
       </c>
     </row>
     <row r="97" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C97" s="1">
-        <v>200</v>
+      <c r="A97" t="s">
+        <v>169</v>
+      </c>
+      <c r="B97" t="s">
+        <v>170</v>
+      </c>
+      <c r="C97">
+        <v>1000</v>
       </c>
     </row>
     <row r="98" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C98" s="1">
-        <v>180</v>
+      <c r="A98" t="s">
+        <v>171</v>
+      </c>
+      <c r="B98" t="s">
+        <v>172</v>
+      </c>
+      <c r="C98">
+        <v>800</v>
       </c>
     </row>
     <row r="99" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C99" s="1">
-        <v>0</v>
+      <c r="A99" t="s">
+        <v>118</v>
+      </c>
+      <c r="B99" t="s">
+        <v>119</v>
+      </c>
+      <c r="C99">
+        <v>830</v>
       </c>
     </row>
     <row r="100" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C100" s="1">
-        <v>0</v>
+      <c r="A100" t="s">
+        <v>122</v>
+      </c>
+      <c r="B100" t="s">
+        <v>123</v>
+      </c>
+      <c r="C100">
+        <v>1000</v>
       </c>
     </row>
     <row r="101" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C101" s="1">
-        <v>0</v>
+      <c r="A101" t="s">
+        <v>226</v>
+      </c>
+      <c r="B101" t="s">
+        <v>227</v>
+      </c>
+      <c r="C101">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:W102">
-    <sortCondition descending="1" ref="C2:C102"/>
+  <sortState ref="A2:C101">
+    <sortCondition ref="A2:A101"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2248,7 +2291,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
